--- a/en/files/Weather icons.xlsx
+++ b/en/files/Weather icons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Weathe-servic_instruction\en\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54223581-F836-4B72-A106-382B3B0DC636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F362E-F429-4458-BD31-6789E23144A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D19CDB41-B217-4808-88C7-99747021D5D5}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Icon</t>
   </si>
@@ -74,9 +74,6 @@
     <t>mist</t>
   </si>
   <si>
-    <t>New index</t>
-  </si>
-  <si>
     <t>Clear sky</t>
   </si>
   <si>
@@ -204,13 +201,52 @@
   </si>
   <si>
     <t>Mostly Cloudy / Flurries</t>
+  </si>
+  <si>
+    <t>6, 8</t>
+  </si>
+  <si>
+    <t>8, 2</t>
+  </si>
+  <si>
+    <t>11, 19</t>
+  </si>
+  <si>
+    <t>16, 19</t>
+  </si>
+  <si>
+    <t>7, 9</t>
+  </si>
+  <si>
+    <t>10, 17</t>
+  </si>
+  <si>
+    <t>3, 13</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>23, 24</t>
+  </si>
+  <si>
+    <t>https://openweathermap.org/weather-conditions</t>
+  </si>
+  <si>
+    <t>https://developer.accuweather.com/weather-icons</t>
+  </si>
+  <si>
+    <t>Index in app</t>
+  </si>
+  <si>
+    <t>Icon in Zepp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +270,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -268,10 +313,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -282,11 +328,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,144 +647,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336F162F-ED1D-48AB-A1A0-85CD2121ED79}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8 C12:C13" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B3B75F-B27E-4062-B537-91CBB3AB3A84}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,8 +852,8 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,15 +1003,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{C941A00C-227A-49AB-B46F-6CEAD3D260E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657E8D4-C40E-4394-BFFC-DF8607B6D0E9}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -928,8 +1035,8 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -948,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -959,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -970,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -981,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -992,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1003,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1014,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1042,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>13</v>
@@ -1053,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -1064,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -1075,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -1086,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -1097,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2">
         <v>8</v>
@@ -1108,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>8</v>
@@ -1119,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>7</v>
@@ -1130,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -1141,7 +1248,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
@@ -1152,7 +1259,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
@@ -1163,7 +1270,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
@@ -1174,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
@@ -1185,7 +1292,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2">
         <v>12</v>
@@ -1196,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2">
         <v>12</v>
@@ -1207,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2">
         <v>12</v>
@@ -1234,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>12</v>
@@ -1261,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
         <v>14</v>
@@ -1272,7 +1379,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1283,7 +1390,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1294,7 +1401,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -1305,7 +1412,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -1316,7 +1423,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2">
         <v>3</v>
@@ -1327,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
@@ -1338,7 +1445,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -1349,7 +1456,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>6</v>
@@ -1360,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -1371,7 +1478,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2">
         <v>8</v>
@@ -1382,7 +1489,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2">
         <v>9</v>
@@ -1393,14 +1500,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2">
         <v>10</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1" xr:uid="{16077C20-CD1B-4D5F-9885-CF7AE352DD06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>